--- a/v3/template.xlsx
+++ b/v3/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akha/Documents/api_excel/v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akha/Documents/api_excel/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458D63B8-3DA4-2F47-92F5-A056072882B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE04A3-BE87-4449-BEBC-E4F016A28BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52800" yWindow="500" windowWidth="19200" windowHeight="19500" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REESTR" sheetId="1" r:id="rId1"/>
@@ -770,15 +770,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -839,7 +830,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -890,11 +880,21 @@
     </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,160 +1302,160 @@
   </sheetPr>
   <dimension ref="A1:R322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="51" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="56" customWidth="1"/>
-    <col min="3" max="5" width="3.5" style="51" customWidth="1"/>
-    <col min="6" max="6" width="23" style="49" customWidth="1"/>
-    <col min="7" max="7" width="23" style="51" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="50" customWidth="1"/>
-    <col min="9" max="9" width="68.6640625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" style="51" customWidth="1"/>
-    <col min="11" max="11" width="0.1640625" style="51" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" style="51" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="30.83203125" style="51" hidden="1" customWidth="1"/>
-    <col min="14" max="18" width="22.5" style="51" hidden="1" customWidth="1"/>
-    <col min="19" max="30" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.83203125" style="52"/>
+    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="53" customWidth="1"/>
+    <col min="3" max="5" width="3.5" style="48" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="47" customWidth="1"/>
+    <col min="9" max="9" width="66.1640625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="0.1640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="48" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.83203125" style="48" hidden="1" customWidth="1"/>
+    <col min="14" max="18" width="22.5" style="48" hidden="1" customWidth="1"/>
+    <col min="19" max="30" width="0" style="49" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="G1" s="29"/>
-      <c r="L1" s="47"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="53" t="e">
+      <c r="A2" s="44"/>
+      <c r="B2" s="50" t="e">
         <f>INDEX(СПР_ОБЪЕКТОВ!$B$7:$K$80, MATCH($G11, СПР_ОБЪЕКТОВ!$B$7:$B$80, 0), 2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="F2" s="69" t="e">
+      <c r="C2" s="44"/>
+      <c r="F2" s="65" t="e">
         <f>IF(N($B2)=0,"","СОГЛАСОВАНО:")</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="47"/>
-      <c r="F3" s="73" t="e">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="44"/>
+      <c r="F3" s="69" t="e">
         <f>IF(N($B2)=0,"",VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$8:$K$100,9,0)&amp;" "&amp;VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$8:$K$100,7,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="74" t="e">
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="70" t="e">
         <f>IF(N($B4)=0,"",VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$100,9,0)&amp;" "&amp;VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$100,7,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="53" t="e">
+      <c r="A4" s="44"/>
+      <c r="B4" s="50" t="e">
         <f>INDEX(СПР_ОБЪЕКТОВ!$B$7:$K$80, MATCH($G11, СПР_ОБЪЕКТОВ!$B$7:$B$80, 0), 3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="C4" s="44"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="47"/>
-      <c r="F5" s="73" t="e">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="F5" s="69" t="e">
         <f>IF(N($B2)=0,"","____________________________ "&amp;VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$7:$K$100,5,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74" t="e">
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="e">
         <f>IF(N($B4)=0,"","____________________________ "&amp;VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$100,5,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="47"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="55"/>
-      <c r="F7" s="69" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="52"/>
+      <c r="F7" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="55"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="70"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="66"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="29"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="70"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -1465,15 +1465,15 @@
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="29"/>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="70"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1482,14 +1482,14 @@
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+    </row>
+    <row r="12" spans="1:13" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -1497,2043 +1497,2043 @@
       <c r="E12" s="29"/>
       <c r="F12" s="31"/>
       <c r="G12" s="29"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="41" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="57">
+      <c r="G15" s="39"/>
+      <c r="H15" s="78">
         <f>SUM(H17:H122)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="68"/>
-    </row>
-    <row r="16" spans="1:13" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:18" s="58" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-    </row>
-    <row r="18" spans="1:18" s="58" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-    </row>
-    <row r="19" spans="1:18" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="H19" s="64"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-    </row>
-    <row r="20" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="H20" s="64"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-    </row>
-    <row r="21" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="H21" s="64"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-    </row>
-    <row r="22" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="H22" s="64"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-    </row>
-    <row r="23" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="H23" s="64"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-    </row>
-    <row r="24" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="H24" s="64"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-    </row>
-    <row r="25" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="H25" s="64"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-    </row>
-    <row r="26" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="H26" s="64"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-    </row>
-    <row r="27" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="H27" s="64"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-    </row>
-    <row r="28" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="H28" s="64"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-    </row>
-    <row r="29" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="H29" s="64"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-    </row>
-    <row r="30" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="H30" s="64"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-    </row>
-    <row r="31" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="H31" s="64"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-    </row>
-    <row r="32" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="H32" s="64"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-    </row>
-    <row r="33" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="H33" s="64"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-    </row>
-    <row r="34" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="H34" s="64"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-    </row>
-    <row r="35" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="H35" s="64"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-    </row>
-    <row r="36" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="H36" s="64"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-    </row>
-    <row r="37" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="H37" s="64"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-    </row>
-    <row r="38" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="H38" s="64"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-    </row>
-    <row r="39" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="H39" s="64"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-    </row>
-    <row r="40" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-    </row>
-    <row r="41" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-    </row>
-    <row r="42" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-    </row>
-    <row r="43" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-    </row>
-    <row r="44" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-    </row>
-    <row r="45" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-    </row>
-    <row r="46" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-    </row>
-    <row r="47" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-    </row>
-    <row r="48" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-    </row>
-    <row r="49" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-    </row>
-    <row r="50" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-    </row>
-    <row r="51" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-    </row>
-    <row r="52" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-    </row>
-    <row r="53" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-    </row>
-    <row r="54" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-    </row>
-    <row r="55" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-    </row>
-    <row r="56" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-    </row>
-    <row r="57" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-    </row>
-    <row r="58" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-    </row>
-    <row r="59" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
-      <c r="H59" s="64"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-    </row>
-    <row r="60" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
-      <c r="H60" s="64"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-    </row>
-    <row r="61" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="H61" s="64"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-    </row>
-    <row r="62" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
-      <c r="H62" s="64"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-    </row>
-    <row r="63" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-    </row>
-    <row r="64" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-    </row>
-    <row r="65" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-    </row>
-    <row r="66" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="44"/>
-    </row>
-    <row r="67" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-    </row>
-    <row r="68" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="44"/>
-      <c r="R68" s="44"/>
-    </row>
-    <row r="69" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-    </row>
-    <row r="70" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
-    </row>
-    <row r="71" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-    </row>
-    <row r="72" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="36"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-    </row>
-    <row r="73" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-    </row>
-    <row r="74" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-    </row>
-    <row r="75" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-    </row>
-    <row r="76" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-    </row>
-    <row r="77" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-    </row>
-    <row r="78" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44"/>
-    </row>
-    <row r="79" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-    </row>
-    <row r="80" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="36"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44"/>
-    </row>
-    <row r="81" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="36"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="44"/>
-    </row>
-    <row r="82" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="44"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44"/>
-    </row>
-    <row r="83" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="36"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-    </row>
-    <row r="84" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
-    </row>
-    <row r="85" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
-    </row>
-    <row r="86" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-    </row>
-    <row r="87" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-    </row>
-    <row r="88" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-    </row>
-    <row r="89" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
-    </row>
-    <row r="90" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="44"/>
-    </row>
-    <row r="91" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-    </row>
-    <row r="92" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-    </row>
-    <row r="93" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-    </row>
-    <row r="94" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="44"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="44"/>
-    </row>
-    <row r="95" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="36"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-    </row>
-    <row r="96" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="44"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
-    </row>
-    <row r="97" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="36"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="44"/>
-      <c r="N97" s="44"/>
-      <c r="O97" s="44"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="44"/>
-    </row>
-    <row r="98" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="36"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="44"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="44"/>
-      <c r="N98" s="44"/>
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-    </row>
-    <row r="99" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="36"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-    </row>
-    <row r="100" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="44"/>
-      <c r="N100" s="44"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="44"/>
-    </row>
-    <row r="101" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="36"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="44"/>
-      <c r="L101" s="44"/>
-      <c r="M101" s="44"/>
-      <c r="N101" s="44"/>
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="44"/>
-    </row>
-    <row r="102" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="36"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="44"/>
-      <c r="N102" s="44"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="44"/>
-    </row>
-    <row r="103" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="36"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="44"/>
-      <c r="O103" s="44"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="44"/>
-      <c r="R103" s="44"/>
-    </row>
-    <row r="104" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="36"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="44"/>
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="44"/>
-    </row>
-    <row r="105" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="36"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="44"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="44"/>
-      <c r="O105" s="44"/>
-      <c r="P105" s="44"/>
-      <c r="Q105" s="44"/>
-      <c r="R105" s="44"/>
-    </row>
-    <row r="106" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="36"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="44"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="44"/>
-      <c r="N106" s="44"/>
-      <c r="O106" s="44"/>
-      <c r="P106" s="44"/>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="44"/>
-    </row>
-    <row r="107" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="36"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="60"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="44"/>
-    </row>
-    <row r="108" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="36"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="44"/>
-      <c r="K108" s="44"/>
-      <c r="L108" s="44"/>
-      <c r="M108" s="44"/>
-      <c r="N108" s="44"/>
-      <c r="O108" s="44"/>
-      <c r="P108" s="44"/>
-      <c r="Q108" s="44"/>
-      <c r="R108" s="44"/>
-    </row>
-    <row r="109" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="36"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="44"/>
-      <c r="K109" s="44"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="44"/>
-      <c r="N109" s="44"/>
-      <c r="O109" s="44"/>
-      <c r="P109" s="44"/>
-      <c r="Q109" s="44"/>
-      <c r="R109" s="44"/>
-    </row>
-    <row r="110" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="36"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="44"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="44"/>
-      <c r="N110" s="44"/>
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="44"/>
-    </row>
-    <row r="111" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="36"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="44"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44"/>
-      <c r="O111" s="44"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="44"/>
-    </row>
-    <row r="112" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="36"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="44"/>
-      <c r="O112" s="44"/>
-      <c r="P112" s="44"/>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="44"/>
-    </row>
-    <row r="113" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="36"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="44"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-    </row>
-    <row r="114" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="36"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="44"/>
-      <c r="L114" s="44"/>
-      <c r="M114" s="44"/>
-      <c r="N114" s="44"/>
-      <c r="O114" s="44"/>
-      <c r="P114" s="44"/>
-      <c r="Q114" s="44"/>
-      <c r="R114" s="44"/>
-    </row>
-    <row r="115" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="36"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="44"/>
-      <c r="L115" s="44"/>
-      <c r="M115" s="44"/>
-      <c r="N115" s="44"/>
-      <c r="O115" s="44"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
-      <c r="R115" s="44"/>
-    </row>
-    <row r="116" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="36"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="44"/>
-      <c r="K116" s="44"/>
-      <c r="L116" s="44"/>
-      <c r="M116" s="44"/>
-      <c r="N116" s="44"/>
-      <c r="O116" s="44"/>
-      <c r="P116" s="44"/>
-      <c r="Q116" s="44"/>
-      <c r="R116" s="44"/>
-    </row>
-    <row r="117" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="36"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="44"/>
-      <c r="P117" s="44"/>
-      <c r="Q117" s="44"/>
-      <c r="R117" s="44"/>
-    </row>
-    <row r="118" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="36"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="60"/>
-      <c r="I118" s="44"/>
-      <c r="J118" s="44"/>
-      <c r="K118" s="44"/>
-      <c r="L118" s="44"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="44"/>
-      <c r="O118" s="44"/>
-      <c r="P118" s="44"/>
-      <c r="Q118" s="44"/>
-      <c r="R118" s="44"/>
-    </row>
-    <row r="119" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="36"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="60"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="44"/>
-      <c r="L119" s="44"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="44"/>
-      <c r="O119" s="44"/>
-      <c r="P119" s="44"/>
-      <c r="Q119" s="44"/>
-      <c r="R119" s="44"/>
-    </row>
-    <row r="120" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="36"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="44"/>
-      <c r="K120" s="44"/>
-      <c r="L120" s="44"/>
-      <c r="M120" s="44"/>
-      <c r="N120" s="44"/>
-      <c r="O120" s="44"/>
-      <c r="P120" s="44"/>
-      <c r="Q120" s="44"/>
-      <c r="R120" s="44"/>
-    </row>
-    <row r="121" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="36"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="44"/>
-      <c r="K121" s="44"/>
-      <c r="L121" s="44"/>
-      <c r="M121" s="44"/>
-      <c r="N121" s="44"/>
-      <c r="O121" s="44"/>
-      <c r="P121" s="44"/>
-      <c r="Q121" s="44"/>
-      <c r="R121" s="44"/>
-    </row>
-    <row r="122" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="36"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="60"/>
-      <c r="I122" s="44"/>
-      <c r="J122" s="44"/>
-      <c r="K122" s="44"/>
-      <c r="L122" s="44"/>
-      <c r="M122" s="44"/>
-      <c r="N122" s="44"/>
-      <c r="O122" s="44"/>
-      <c r="P122" s="44"/>
-      <c r="Q122" s="44"/>
-      <c r="R122" s="44"/>
-    </row>
-    <row r="123" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="36"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="44"/>
-      <c r="J123" s="44"/>
-      <c r="K123" s="44"/>
-      <c r="L123" s="44"/>
-      <c r="M123" s="44"/>
-      <c r="N123" s="44"/>
-      <c r="O123" s="44"/>
-      <c r="P123" s="44"/>
-      <c r="Q123" s="44"/>
-      <c r="R123" s="44"/>
-    </row>
-    <row r="124" spans="1:18" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="36"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
-      <c r="K124" s="44"/>
-      <c r="L124" s="44"/>
-      <c r="M124" s="44"/>
-      <c r="N124" s="44"/>
-      <c r="O124" s="44"/>
-      <c r="P124" s="44"/>
-      <c r="Q124" s="44"/>
-      <c r="R124" s="44"/>
+      <c r="I15" s="64"/>
+    </row>
+    <row r="16" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:18" s="54" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="1:18" s="54" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="H19" s="60"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="H20" s="60"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+    </row>
+    <row r="21" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="H21" s="60"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="H22" s="60"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+    </row>
+    <row r="23" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="H23" s="60"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="H24" s="60"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="H25" s="60"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="H26" s="60"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="H27" s="60"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+    </row>
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="H28" s="60"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+    </row>
+    <row r="29" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="H29" s="60"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+    </row>
+    <row r="30" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="H30" s="60"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+    </row>
+    <row r="31" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="H31" s="60"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="H32" s="60"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+    </row>
+    <row r="33" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="H33" s="60"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+    </row>
+    <row r="34" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="H34" s="60"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+    </row>
+    <row r="35" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="H35" s="60"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+    </row>
+    <row r="36" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="H36" s="60"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+    </row>
+    <row r="37" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="H37" s="60"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+    </row>
+    <row r="38" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="H38" s="60"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+    </row>
+    <row r="39" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="H39" s="60"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+    </row>
+    <row r="40" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+    </row>
+    <row r="41" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+    </row>
+    <row r="42" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+    </row>
+    <row r="43" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+    </row>
+    <row r="44" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+    </row>
+    <row r="45" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+    </row>
+    <row r="46" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+    </row>
+    <row r="47" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+    </row>
+    <row r="48" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+    </row>
+    <row r="49" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+    </row>
+    <row r="50" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+    </row>
+    <row r="51" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+    </row>
+    <row r="52" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+    </row>
+    <row r="53" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+    </row>
+    <row r="54" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+    </row>
+    <row r="55" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+    </row>
+    <row r="56" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+    </row>
+    <row r="57" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+    </row>
+    <row r="58" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+    </row>
+    <row r="59" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="H59" s="60"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+    </row>
+    <row r="60" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="H60" s="60"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+    </row>
+    <row r="61" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
+      <c r="H61" s="60"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+    </row>
+    <row r="62" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
+      <c r="H62" s="60"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+    </row>
+    <row r="63" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+    </row>
+    <row r="64" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+    </row>
+    <row r="65" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+    </row>
+    <row r="66" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+    </row>
+    <row r="67" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+    </row>
+    <row r="68" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+    </row>
+    <row r="69" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+    </row>
+    <row r="70" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+    </row>
+    <row r="71" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+    </row>
+    <row r="72" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+    </row>
+    <row r="73" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+    </row>
+    <row r="74" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+    </row>
+    <row r="75" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+    </row>
+    <row r="76" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+    </row>
+    <row r="77" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+    </row>
+    <row r="78" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+    </row>
+    <row r="79" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+    </row>
+    <row r="80" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+    </row>
+    <row r="81" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="41"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="41"/>
+    </row>
+    <row r="82" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+    </row>
+    <row r="83" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="41"/>
+    </row>
+    <row r="84" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+    </row>
+    <row r="85" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="33"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="41"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="41"/>
+    </row>
+    <row r="86" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+    </row>
+    <row r="87" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+    </row>
+    <row r="88" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+    </row>
+    <row r="89" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+    </row>
+    <row r="90" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+    </row>
+    <row r="91" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="33"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="41"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="41"/>
+    </row>
+    <row r="92" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
+      <c r="N92" s="41"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="41"/>
+    </row>
+    <row r="93" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+    </row>
+    <row r="94" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="41"/>
+    </row>
+    <row r="95" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="33"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="41"/>
+    </row>
+    <row r="96" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="33"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+    </row>
+    <row r="97" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="33"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+    </row>
+    <row r="98" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+    </row>
+    <row r="99" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+    </row>
+    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="41"/>
+    </row>
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+    </row>
+    <row r="102" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+    </row>
+    <row r="103" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="33"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="41"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="41"/>
+    </row>
+    <row r="104" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="33"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="41"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="41"/>
+    </row>
+    <row r="105" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="41"/>
+      <c r="N105" s="41"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="41"/>
+    </row>
+    <row r="106" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="41"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="41"/>
+    </row>
+    <row r="107" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="41"/>
+    </row>
+    <row r="108" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="41"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="41"/>
+    </row>
+    <row r="109" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="33"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="41"/>
+      <c r="N109" s="41"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="41"/>
+    </row>
+    <row r="110" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="33"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
+      <c r="L110" s="41"/>
+      <c r="M110" s="41"/>
+      <c r="N110" s="41"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="41"/>
+      <c r="R110" s="41"/>
+    </row>
+    <row r="111" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="33"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+    </row>
+    <row r="112" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="33"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+      <c r="L112" s="41"/>
+      <c r="M112" s="41"/>
+      <c r="N112" s="41"/>
+      <c r="O112" s="41"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="41"/>
+      <c r="R112" s="41"/>
+    </row>
+    <row r="113" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="33"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
+      <c r="L113" s="41"/>
+      <c r="M113" s="41"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="41"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="41"/>
+    </row>
+    <row r="114" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="33"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="41"/>
+    </row>
+    <row r="115" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="33"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
+      <c r="L115" s="41"/>
+      <c r="M115" s="41"/>
+      <c r="N115" s="41"/>
+      <c r="O115" s="41"/>
+      <c r="P115" s="41"/>
+      <c r="Q115" s="41"/>
+      <c r="R115" s="41"/>
+    </row>
+    <row r="116" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="33"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+      <c r="L116" s="41"/>
+      <c r="M116" s="41"/>
+      <c r="N116" s="41"/>
+      <c r="O116" s="41"/>
+      <c r="P116" s="41"/>
+      <c r="Q116" s="41"/>
+      <c r="R116" s="41"/>
+    </row>
+    <row r="117" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="33"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="41"/>
+      <c r="O117" s="41"/>
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+    </row>
+    <row r="118" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="33"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="41"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
+      <c r="P118" s="41"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="41"/>
+    </row>
+    <row r="119" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="33"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
+      <c r="L119" s="41"/>
+      <c r="M119" s="41"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="41"/>
+    </row>
+    <row r="120" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="33"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="41"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="41"/>
+      <c r="R120" s="41"/>
+    </row>
+    <row r="121" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="33"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="41"/>
+    </row>
+    <row r="122" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="33"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="56"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+    </row>
+    <row r="123" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="33"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="41"/>
+    </row>
+    <row r="124" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="33"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="29"/>
@@ -3543,323 +3543,323 @@
       <c r="E125" s="29"/>
       <c r="F125" s="31"/>
       <c r="G125" s="29"/>
-      <c r="H125" s="60"/>
+      <c r="H125" s="56"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="29"/>
-      <c r="H126" s="60"/>
+      <c r="H126" s="56"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="29"/>
-      <c r="H127" s="60"/>
+      <c r="H127" s="56"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="36"/>
-      <c r="H128" s="60"/>
+      <c r="A128" s="33"/>
+      <c r="H128" s="56"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="36"/>
-      <c r="H129" s="60"/>
+      <c r="A129" s="33"/>
+      <c r="H129" s="56"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="36"/>
-      <c r="H130" s="60"/>
+      <c r="A130" s="33"/>
+      <c r="H130" s="56"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="36"/>
-      <c r="H131" s="60"/>
+      <c r="A131" s="33"/>
+      <c r="H131" s="56"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="36"/>
-      <c r="H132" s="60"/>
+      <c r="A132" s="33"/>
+      <c r="H132" s="56"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="36"/>
-      <c r="H133" s="60"/>
+      <c r="A133" s="33"/>
+      <c r="H133" s="56"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
-      <c r="H134" s="60"/>
+      <c r="H134" s="56"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
-      <c r="H135" s="60"/>
+      <c r="H135" s="56"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
-      <c r="H136" s="60"/>
+      <c r="H136" s="56"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
-      <c r="H137" s="60"/>
+      <c r="H137" s="56"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="36"/>
-      <c r="H138" s="60"/>
+      <c r="A138" s="33"/>
+      <c r="H138" s="56"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
-      <c r="H139" s="60"/>
+      <c r="H139" s="56"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
-      <c r="H140" s="60"/>
+      <c r="H140" s="56"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
-      <c r="H141" s="60"/>
+      <c r="H141" s="56"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
-      <c r="H142" s="60"/>
+      <c r="H142" s="56"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="36"/>
-      <c r="H143" s="60"/>
+      <c r="A143" s="33"/>
+      <c r="H143" s="56"/>
     </row>
     <row r="144" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
-      <c r="H144" s="60"/>
+      <c r="H144" s="56"/>
     </row>
     <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
-      <c r="H145" s="60"/>
+      <c r="H145" s="56"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H146" s="60"/>
+      <c r="H146" s="56"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
-      <c r="H147" s="60"/>
+      <c r="H147" s="56"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="36"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="60"/>
+      <c r="A148" s="33"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="56"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="36"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="43"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="60"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="40"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="56"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="36"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="43"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="60"/>
+      <c r="A150" s="33"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="56"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="36"/>
-      <c r="B151" s="37"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="43"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="60"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="56"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="36"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="43"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="60"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="56"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="36"/>
-      <c r="B153" s="37"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="36"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="60"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="40"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="56"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="36"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="43"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="60"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="56"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="36"/>
-      <c r="B155" s="37"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="60"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="56"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="36"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="43"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="60"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="56"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="36"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="43"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="60"/>
+      <c r="A157" s="33"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="40"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="56"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="36"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="60"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="40"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="56"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="36"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="60"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="40"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="56"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="36"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="36"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="60"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="40"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="56"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="36"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="60"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="40"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="56"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="36"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="36"/>
-      <c r="E162" s="36"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="60"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="56"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="36"/>
-      <c r="B163" s="37"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="36"/>
-      <c r="E163" s="36"/>
-      <c r="F163" s="43"/>
-      <c r="G163" s="36"/>
-      <c r="H163" s="60"/>
+      <c r="A163" s="33"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="40"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="56"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="36"/>
-      <c r="B164" s="37"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="43"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="60"/>
+      <c r="A164" s="33"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="40"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="56"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="36"/>
-      <c r="B165" s="37"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="36"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="43"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="60"/>
+      <c r="A165" s="33"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="40"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="56"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="36"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="43"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="60"/>
+      <c r="A166" s="33"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="40"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="56"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="36"/>
-      <c r="B167" s="37"/>
-      <c r="C167" s="36"/>
-      <c r="D167" s="36"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="43"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="60"/>
+      <c r="A167" s="33"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="40"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="56"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="36"/>
-      <c r="B168" s="37"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="43"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="60"/>
+      <c r="A168" s="33"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="56"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="36"/>
-      <c r="B169" s="37"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="60"/>
+      <c r="A169" s="33"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="56"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="36"/>
-      <c r="B170" s="37"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="43"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="60"/>
+      <c r="A170" s="33"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="40"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="56"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="29"/>
@@ -3867,8 +3867,8 @@
       <c r="C171" s="29"/>
       <c r="D171" s="29"/>
       <c r="E171" s="29"/>
-      <c r="F171" s="43"/>
-      <c r="G171" s="36"/>
+      <c r="F171" s="40"/>
+      <c r="G171" s="33"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="29"/>
@@ -3890,21 +3890,21 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="29"/>
-      <c r="B174" s="45"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="35"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
       <c r="F174" s="31"/>
       <c r="G174" s="29"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="36"/>
-      <c r="B175" s="37"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="46"/>
-      <c r="G175" s="35"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="32"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="29"/>
@@ -3912,8 +3912,8 @@
       <c r="C176" s="29"/>
       <c r="D176" s="29"/>
       <c r="E176" s="29"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="36"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="29"/>
@@ -3935,21 +3935,21 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="29"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
+      <c r="B179" s="42"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
       <c r="F179" s="31"/>
       <c r="G179" s="29"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="36"/>
-      <c r="B180" s="37"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="46"/>
-      <c r="G180" s="35"/>
+      <c r="A180" s="33"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="32"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="29"/>
@@ -3957,8 +3957,8 @@
       <c r="C181" s="29"/>
       <c r="D181" s="29"/>
       <c r="E181" s="29"/>
-      <c r="F181" s="43"/>
-      <c r="G181" s="36"/>
+      <c r="F181" s="40"/>
+      <c r="G181" s="33"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="29"/>
@@ -3980,21 +3980,21 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="29"/>
-      <c r="B184" s="45"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="35"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
       <c r="F184" s="31"/>
       <c r="G184" s="29"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="36"/>
-      <c r="B185" s="37"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="35"/>
+      <c r="A185" s="33"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="43"/>
+      <c r="G185" s="32"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="29"/>
@@ -4002,8 +4002,8 @@
       <c r="C186" s="29"/>
       <c r="D186" s="29"/>
       <c r="E186" s="29"/>
-      <c r="F186" s="43"/>
-      <c r="G186" s="36"/>
+      <c r="F186" s="40"/>
+      <c r="G186" s="33"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="29"/>
@@ -4025,21 +4025,21 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="29"/>
-      <c r="B189" s="45"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
+      <c r="B189" s="42"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
       <c r="F189" s="31"/>
       <c r="G189" s="29"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="36"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="46"/>
-      <c r="G190" s="35"/>
+      <c r="A190" s="33"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="32"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="29"/>
@@ -4047,8 +4047,8 @@
       <c r="C191" s="29"/>
       <c r="D191" s="29"/>
       <c r="E191" s="29"/>
-      <c r="F191" s="43"/>
-      <c r="G191" s="36"/>
+      <c r="F191" s="40"/>
+      <c r="G191" s="33"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="29"/>
@@ -4070,21 +4070,21 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="29"/>
-      <c r="B194" s="45"/>
-      <c r="C194" s="35"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
+      <c r="B194" s="42"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
       <c r="F194" s="31"/>
       <c r="G194" s="29"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="36"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="36"/>
-      <c r="E195" s="36"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="35"/>
+      <c r="A195" s="33"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="32"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="29"/>
@@ -4092,8 +4092,8 @@
       <c r="C196" s="29"/>
       <c r="D196" s="29"/>
       <c r="E196" s="29"/>
-      <c r="F196" s="43"/>
-      <c r="G196" s="36"/>
+      <c r="F196" s="40"/>
+      <c r="G196" s="33"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="29"/>
@@ -4115,57 +4115,57 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="29"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="35"/>
-      <c r="D199" s="35"/>
-      <c r="E199" s="35"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
       <c r="F199" s="31"/>
       <c r="G199" s="29"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="36"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="36"/>
-      <c r="D200" s="36"/>
-      <c r="E200" s="36"/>
-      <c r="F200" s="46"/>
-      <c r="G200" s="35"/>
+      <c r="A200" s="33"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="32"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="36"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="36"/>
-      <c r="D201" s="36"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="43"/>
-      <c r="G201" s="36"/>
+      <c r="A201" s="33"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="40"/>
+      <c r="G201" s="33"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="36"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="36"/>
-      <c r="D202" s="36"/>
-      <c r="E202" s="36"/>
-      <c r="F202" s="43"/>
-      <c r="G202" s="36"/>
+      <c r="A202" s="33"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="40"/>
+      <c r="G202" s="33"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="36"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="36"/>
-      <c r="D203" s="36"/>
-      <c r="E203" s="36"/>
-      <c r="F203" s="43"/>
-      <c r="G203" s="36"/>
+      <c r="A203" s="33"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="40"/>
+      <c r="G203" s="33"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="36"/>
-      <c r="B204" s="37"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="36"/>
-      <c r="E204" s="36"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="36"/>
+      <c r="A204" s="33"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="40"/>
+      <c r="G204" s="33"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="29"/>
@@ -4173,8 +4173,8 @@
       <c r="C205" s="29"/>
       <c r="D205" s="29"/>
       <c r="E205" s="29"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="36"/>
+      <c r="F205" s="40"/>
+      <c r="G205" s="33"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="29"/>
@@ -4196,48 +4196,48 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="29"/>
-      <c r="B208" s="45"/>
-      <c r="C208" s="35"/>
-      <c r="D208" s="35"/>
-      <c r="E208" s="35"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
       <c r="F208" s="31"/>
       <c r="G208" s="29"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="36"/>
-      <c r="B209" s="37"/>
-      <c r="C209" s="36"/>
-      <c r="D209" s="36"/>
-      <c r="E209" s="36"/>
-      <c r="F209" s="46"/>
-      <c r="G209" s="35"/>
+      <c r="A209" s="33"/>
+      <c r="B209" s="34"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="32"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="36"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="36"/>
-      <c r="D210" s="36"/>
-      <c r="E210" s="36"/>
-      <c r="F210" s="43"/>
-      <c r="G210" s="36"/>
+      <c r="A210" s="33"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="40"/>
+      <c r="G210" s="33"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="36"/>
-      <c r="B211" s="37"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="36"/>
-      <c r="E211" s="36"/>
-      <c r="F211" s="43"/>
-      <c r="G211" s="36"/>
+      <c r="A211" s="33"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="40"/>
+      <c r="G211" s="33"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="36"/>
-      <c r="B212" s="37"/>
-      <c r="C212" s="36"/>
-      <c r="D212" s="36"/>
-      <c r="E212" s="36"/>
-      <c r="F212" s="43"/>
-      <c r="G212" s="36"/>
+      <c r="A212" s="33"/>
+      <c r="B212" s="34"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="40"/>
+      <c r="G212" s="33"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="29"/>
@@ -4245,8 +4245,8 @@
       <c r="C213" s="29"/>
       <c r="D213" s="29"/>
       <c r="E213" s="29"/>
-      <c r="F213" s="43"/>
-      <c r="G213" s="36"/>
+      <c r="F213" s="40"/>
+      <c r="G213" s="33"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="29"/>
@@ -4268,309 +4268,309 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="29"/>
-      <c r="B216" s="45"/>
-      <c r="C216" s="35"/>
-      <c r="D216" s="35"/>
-      <c r="E216" s="35"/>
+      <c r="B216" s="42"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
       <c r="F216" s="31"/>
       <c r="G216" s="29"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="36"/>
-      <c r="B217" s="37"/>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
-      <c r="E217" s="36"/>
-      <c r="F217" s="46"/>
-      <c r="G217" s="35"/>
+      <c r="A217" s="33"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="32"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="36"/>
-      <c r="B218" s="37"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="36"/>
-      <c r="E218" s="36"/>
-      <c r="F218" s="43"/>
-      <c r="G218" s="36"/>
+      <c r="A218" s="33"/>
+      <c r="B218" s="34"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="40"/>
+      <c r="G218" s="33"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="36"/>
-      <c r="B219" s="37"/>
-      <c r="C219" s="36"/>
-      <c r="D219" s="36"/>
-      <c r="E219" s="36"/>
-      <c r="F219" s="43"/>
-      <c r="G219" s="36"/>
+      <c r="A219" s="33"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="40"/>
+      <c r="G219" s="33"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="36"/>
-      <c r="B220" s="37"/>
-      <c r="C220" s="36"/>
-      <c r="D220" s="36"/>
-      <c r="E220" s="36"/>
-      <c r="F220" s="43"/>
-      <c r="G220" s="36"/>
+      <c r="A220" s="33"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="40"/>
+      <c r="G220" s="33"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="36"/>
-      <c r="B221" s="37"/>
-      <c r="C221" s="36"/>
-      <c r="D221" s="36"/>
-      <c r="E221" s="36"/>
-      <c r="F221" s="43"/>
-      <c r="G221" s="36"/>
+      <c r="A221" s="33"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="40"/>
+      <c r="G221" s="33"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="36"/>
-      <c r="B222" s="37"/>
-      <c r="C222" s="36"/>
-      <c r="D222" s="36"/>
-      <c r="E222" s="36"/>
-      <c r="F222" s="43"/>
-      <c r="G222" s="36"/>
+      <c r="A222" s="33"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="40"/>
+      <c r="G222" s="33"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="36"/>
-      <c r="B223" s="37"/>
-      <c r="C223" s="36"/>
-      <c r="D223" s="36"/>
-      <c r="E223" s="36"/>
-      <c r="F223" s="43"/>
-      <c r="G223" s="36"/>
+      <c r="A223" s="33"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="40"/>
+      <c r="G223" s="33"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="36"/>
-      <c r="B224" s="37"/>
-      <c r="C224" s="36"/>
-      <c r="D224" s="36"/>
-      <c r="E224" s="36"/>
-      <c r="F224" s="43"/>
-      <c r="G224" s="36"/>
+      <c r="A224" s="33"/>
+      <c r="B224" s="34"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="40"/>
+      <c r="G224" s="33"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="36"/>
-      <c r="B225" s="37"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="36"/>
-      <c r="E225" s="36"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="36"/>
+      <c r="A225" s="33"/>
+      <c r="B225" s="34"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="40"/>
+      <c r="G225" s="33"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="36"/>
-      <c r="B226" s="37"/>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
-      <c r="E226" s="36"/>
-      <c r="F226" s="43"/>
-      <c r="G226" s="36"/>
+      <c r="A226" s="33"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="33"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="40"/>
+      <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="36"/>
-      <c r="B227" s="37"/>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
-      <c r="E227" s="36"/>
-      <c r="F227" s="43"/>
-      <c r="G227" s="36"/>
+      <c r="A227" s="33"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="40"/>
+      <c r="G227" s="33"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="36"/>
-      <c r="B228" s="37"/>
-      <c r="C228" s="36"/>
-      <c r="D228" s="36"/>
-      <c r="E228" s="36"/>
-      <c r="F228" s="43"/>
-      <c r="G228" s="36"/>
+      <c r="A228" s="33"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="40"/>
+      <c r="G228" s="33"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="36"/>
-      <c r="B229" s="37"/>
-      <c r="C229" s="36"/>
-      <c r="D229" s="36"/>
-      <c r="E229" s="36"/>
-      <c r="F229" s="43"/>
-      <c r="G229" s="36"/>
+      <c r="A229" s="33"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="33"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="40"/>
+      <c r="G229" s="33"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="36"/>
-      <c r="B230" s="37"/>
-      <c r="C230" s="36"/>
-      <c r="D230" s="36"/>
-      <c r="E230" s="36"/>
-      <c r="F230" s="43"/>
-      <c r="G230" s="36"/>
+      <c r="A230" s="33"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="40"/>
+      <c r="G230" s="33"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="36"/>
-      <c r="B231" s="37"/>
-      <c r="C231" s="36"/>
-      <c r="D231" s="36"/>
-      <c r="E231" s="36"/>
-      <c r="F231" s="43"/>
-      <c r="G231" s="36"/>
+      <c r="A231" s="33"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="40"/>
+      <c r="G231" s="33"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="36"/>
-      <c r="B232" s="37"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="36"/>
-      <c r="E232" s="36"/>
-      <c r="F232" s="43"/>
-      <c r="G232" s="36"/>
+      <c r="A232" s="33"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="40"/>
+      <c r="G232" s="33"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="36"/>
-      <c r="B233" s="37"/>
-      <c r="C233" s="36"/>
-      <c r="D233" s="36"/>
-      <c r="E233" s="36"/>
-      <c r="F233" s="43"/>
-      <c r="G233" s="36"/>
+      <c r="A233" s="33"/>
+      <c r="B233" s="34"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="40"/>
+      <c r="G233" s="33"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="36"/>
-      <c r="B234" s="37"/>
-      <c r="C234" s="36"/>
-      <c r="D234" s="36"/>
-      <c r="E234" s="36"/>
-      <c r="F234" s="43"/>
-      <c r="G234" s="36"/>
+      <c r="A234" s="33"/>
+      <c r="B234" s="34"/>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="40"/>
+      <c r="G234" s="33"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="36"/>
-      <c r="B235" s="37"/>
-      <c r="C235" s="36"/>
-      <c r="D235" s="36"/>
-      <c r="E235" s="36"/>
-      <c r="F235" s="43"/>
-      <c r="G235" s="36"/>
+      <c r="A235" s="33"/>
+      <c r="B235" s="34"/>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="40"/>
+      <c r="G235" s="33"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="36"/>
-      <c r="B236" s="37"/>
-      <c r="C236" s="36"/>
-      <c r="D236" s="36"/>
-      <c r="E236" s="36"/>
-      <c r="F236" s="43"/>
-      <c r="G236" s="36"/>
+      <c r="A236" s="33"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="40"/>
+      <c r="G236" s="33"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="36"/>
-      <c r="B237" s="37"/>
-      <c r="C237" s="36"/>
-      <c r="D237" s="36"/>
-      <c r="E237" s="36"/>
-      <c r="F237" s="43"/>
-      <c r="G237" s="36"/>
+      <c r="A237" s="33"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="40"/>
+      <c r="G237" s="33"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="36"/>
-      <c r="B238" s="37"/>
-      <c r="C238" s="36"/>
-      <c r="D238" s="36"/>
-      <c r="E238" s="36"/>
-      <c r="F238" s="43"/>
-      <c r="G238" s="36"/>
+      <c r="A238" s="33"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="40"/>
+      <c r="G238" s="33"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="36"/>
-      <c r="B239" s="37"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="36"/>
-      <c r="E239" s="36"/>
-      <c r="F239" s="43"/>
-      <c r="G239" s="36"/>
+      <c r="A239" s="33"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="40"/>
+      <c r="G239" s="33"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="36"/>
-      <c r="B240" s="37"/>
-      <c r="C240" s="36"/>
-      <c r="D240" s="36"/>
-      <c r="E240" s="36"/>
-      <c r="F240" s="43"/>
-      <c r="G240" s="36"/>
+      <c r="A240" s="33"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
+      <c r="F240" s="40"/>
+      <c r="G240" s="33"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="36"/>
-      <c r="B241" s="37"/>
-      <c r="C241" s="36"/>
-      <c r="D241" s="36"/>
-      <c r="E241" s="36"/>
-      <c r="F241" s="43"/>
-      <c r="G241" s="36"/>
+      <c r="A241" s="33"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="33"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="33"/>
+      <c r="F241" s="40"/>
+      <c r="G241" s="33"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="36"/>
-      <c r="B242" s="37"/>
-      <c r="C242" s="36"/>
-      <c r="D242" s="36"/>
-      <c r="E242" s="36"/>
-      <c r="F242" s="43"/>
-      <c r="G242" s="36"/>
+      <c r="A242" s="33"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="33"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="33"/>
+      <c r="F242" s="40"/>
+      <c r="G242" s="33"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="36"/>
-      <c r="B243" s="37"/>
-      <c r="C243" s="36"/>
-      <c r="D243" s="36"/>
-      <c r="E243" s="36"/>
-      <c r="F243" s="43"/>
-      <c r="G243" s="36"/>
+      <c r="A243" s="33"/>
+      <c r="B243" s="34"/>
+      <c r="C243" s="33"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
+      <c r="F243" s="40"/>
+      <c r="G243" s="33"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="36"/>
-      <c r="B244" s="37"/>
-      <c r="C244" s="36"/>
-      <c r="D244" s="36"/>
-      <c r="E244" s="36"/>
-      <c r="F244" s="43"/>
-      <c r="G244" s="36"/>
+      <c r="A244" s="33"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
+      <c r="F244" s="40"/>
+      <c r="G244" s="33"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="36"/>
-      <c r="B245" s="37"/>
-      <c r="C245" s="36"/>
-      <c r="D245" s="36"/>
-      <c r="E245" s="36"/>
-      <c r="F245" s="43"/>
-      <c r="G245" s="36"/>
+      <c r="A245" s="33"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="33"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="33"/>
+      <c r="F245" s="40"/>
+      <c r="G245" s="33"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="36"/>
-      <c r="B246" s="37"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="36"/>
-      <c r="E246" s="36"/>
-      <c r="F246" s="43"/>
-      <c r="G246" s="36"/>
+      <c r="A246" s="33"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="33"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="40"/>
+      <c r="G246" s="33"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="36"/>
-      <c r="B247" s="37"/>
-      <c r="C247" s="36"/>
-      <c r="D247" s="36"/>
-      <c r="E247" s="36"/>
-      <c r="F247" s="43"/>
-      <c r="G247" s="36"/>
+      <c r="A247" s="33"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="33"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="33"/>
+      <c r="F247" s="40"/>
+      <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="36"/>
-      <c r="B248" s="37"/>
-      <c r="C248" s="36"/>
-      <c r="D248" s="36"/>
-      <c r="E248" s="36"/>
-      <c r="F248" s="43"/>
-      <c r="G248" s="36"/>
+      <c r="A248" s="33"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="33"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
+      <c r="F248" s="40"/>
+      <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="36"/>
-      <c r="B249" s="37"/>
-      <c r="C249" s="36"/>
-      <c r="D249" s="36"/>
-      <c r="E249" s="36"/>
-      <c r="F249" s="43"/>
-      <c r="G249" s="36"/>
+      <c r="A249" s="33"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="33"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="40"/>
+      <c r="G249" s="33"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="29"/>
@@ -4578,8 +4578,8 @@
       <c r="C250" s="29"/>
       <c r="D250" s="29"/>
       <c r="E250" s="29"/>
-      <c r="F250" s="43"/>
-      <c r="G250" s="36"/>
+      <c r="F250" s="40"/>
+      <c r="G250" s="33"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="29"/>
@@ -4601,21 +4601,21 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="29"/>
-      <c r="B253" s="45"/>
-      <c r="C253" s="35"/>
-      <c r="D253" s="35"/>
-      <c r="E253" s="35"/>
+      <c r="B253" s="42"/>
+      <c r="C253" s="32"/>
+      <c r="D253" s="32"/>
+      <c r="E253" s="32"/>
       <c r="F253" s="31"/>
       <c r="G253" s="29"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="36"/>
-      <c r="B254" s="37"/>
-      <c r="C254" s="36"/>
-      <c r="D254" s="36"/>
-      <c r="E254" s="36"/>
-      <c r="F254" s="46"/>
-      <c r="G254" s="35"/>
+      <c r="A254" s="33"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="43"/>
+      <c r="G254" s="32"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="29"/>
@@ -4623,8 +4623,8 @@
       <c r="C255" s="29"/>
       <c r="D255" s="29"/>
       <c r="E255" s="29"/>
-      <c r="F255" s="43"/>
-      <c r="G255" s="36"/>
+      <c r="F255" s="40"/>
+      <c r="G255" s="33"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="29"/>
@@ -4646,93 +4646,93 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="29"/>
-      <c r="B258" s="45"/>
-      <c r="C258" s="35"/>
-      <c r="D258" s="35"/>
-      <c r="E258" s="35"/>
+      <c r="B258" s="42"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="32"/>
       <c r="F258" s="31"/>
       <c r="G258" s="29"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="36"/>
-      <c r="B259" s="37"/>
-      <c r="C259" s="36"/>
-      <c r="D259" s="36"/>
-      <c r="E259" s="36"/>
-      <c r="F259" s="46"/>
-      <c r="G259" s="35"/>
+      <c r="A259" s="33"/>
+      <c r="B259" s="34"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="33"/>
+      <c r="E259" s="33"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="32"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" s="36"/>
-      <c r="B260" s="37"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="36"/>
-      <c r="E260" s="36"/>
-      <c r="F260" s="43"/>
-      <c r="G260" s="36"/>
+      <c r="A260" s="33"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33"/>
+      <c r="F260" s="40"/>
+      <c r="G260" s="33"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" s="36"/>
-      <c r="B261" s="37"/>
-      <c r="C261" s="36"/>
-      <c r="D261" s="36"/>
-      <c r="E261" s="36"/>
-      <c r="F261" s="43"/>
-      <c r="G261" s="36"/>
+      <c r="A261" s="33"/>
+      <c r="B261" s="34"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="33"/>
+      <c r="F261" s="40"/>
+      <c r="G261" s="33"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" s="36"/>
-      <c r="B262" s="37"/>
-      <c r="C262" s="36"/>
-      <c r="D262" s="36"/>
-      <c r="E262" s="36"/>
-      <c r="F262" s="43"/>
-      <c r="G262" s="36"/>
+      <c r="A262" s="33"/>
+      <c r="B262" s="34"/>
+      <c r="C262" s="33"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="40"/>
+      <c r="G262" s="33"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" s="36"/>
-      <c r="B263" s="37"/>
-      <c r="C263" s="36"/>
-      <c r="D263" s="36"/>
-      <c r="E263" s="36"/>
-      <c r="F263" s="43"/>
-      <c r="G263" s="36"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+      <c r="F263" s="40"/>
+      <c r="G263" s="33"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="36"/>
-      <c r="B264" s="37"/>
-      <c r="C264" s="36"/>
-      <c r="D264" s="36"/>
-      <c r="E264" s="36"/>
-      <c r="F264" s="43"/>
-      <c r="G264" s="36"/>
+      <c r="A264" s="33"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="33"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="33"/>
+      <c r="F264" s="40"/>
+      <c r="G264" s="33"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="36"/>
-      <c r="B265" s="37"/>
-      <c r="C265" s="36"/>
-      <c r="D265" s="36"/>
-      <c r="E265" s="36"/>
-      <c r="F265" s="43"/>
-      <c r="G265" s="36"/>
+      <c r="A265" s="33"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="40"/>
+      <c r="G265" s="33"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="36"/>
-      <c r="B266" s="37"/>
-      <c r="C266" s="36"/>
-      <c r="D266" s="36"/>
-      <c r="E266" s="36"/>
-      <c r="F266" s="43"/>
-      <c r="G266" s="36"/>
+      <c r="A266" s="33"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="40"/>
+      <c r="G266" s="33"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" s="36"/>
-      <c r="B267" s="37"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="36"/>
-      <c r="E267" s="36"/>
-      <c r="F267" s="43"/>
-      <c r="G267" s="36"/>
+      <c r="A267" s="33"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="33"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
+      <c r="F267" s="40"/>
+      <c r="G267" s="33"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="29"/>
@@ -4740,8 +4740,8 @@
       <c r="C268" s="29"/>
       <c r="D268" s="29"/>
       <c r="E268" s="29"/>
-      <c r="F268" s="43"/>
-      <c r="G268" s="36"/>
+      <c r="F268" s="40"/>
+      <c r="G268" s="33"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="29"/>
@@ -4763,21 +4763,21 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="29"/>
-      <c r="B271" s="45"/>
-      <c r="C271" s="35"/>
-      <c r="D271" s="35"/>
-      <c r="E271" s="35"/>
+      <c r="B271" s="42"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="32"/>
       <c r="F271" s="31"/>
       <c r="G271" s="29"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" s="36"/>
-      <c r="B272" s="37"/>
-      <c r="C272" s="36"/>
-      <c r="D272" s="36"/>
-      <c r="E272" s="36"/>
-      <c r="F272" s="46"/>
-      <c r="G272" s="35"/>
+      <c r="A272" s="33"/>
+      <c r="B272" s="34"/>
+      <c r="C272" s="33"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="33"/>
+      <c r="F272" s="43"/>
+      <c r="G272" s="32"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="29"/>
@@ -4785,8 +4785,8 @@
       <c r="C273" s="29"/>
       <c r="D273" s="29"/>
       <c r="E273" s="29"/>
-      <c r="F273" s="43"/>
-      <c r="G273" s="36"/>
+      <c r="F273" s="40"/>
+      <c r="G273" s="33"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="29"/>
@@ -4808,93 +4808,93 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="29"/>
-      <c r="B276" s="45"/>
-      <c r="C276" s="35"/>
-      <c r="D276" s="35"/>
-      <c r="E276" s="35"/>
+      <c r="B276" s="42"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="32"/>
+      <c r="E276" s="32"/>
       <c r="F276" s="31"/>
       <c r="G276" s="29"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" s="36"/>
-      <c r="B277" s="37"/>
-      <c r="C277" s="36"/>
-      <c r="D277" s="36"/>
-      <c r="E277" s="36"/>
-      <c r="F277" s="46"/>
-      <c r="G277" s="35"/>
+      <c r="A277" s="33"/>
+      <c r="B277" s="34"/>
+      <c r="C277" s="33"/>
+      <c r="D277" s="33"/>
+      <c r="E277" s="33"/>
+      <c r="F277" s="43"/>
+      <c r="G277" s="32"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="36"/>
-      <c r="B278" s="37"/>
-      <c r="C278" s="36"/>
-      <c r="D278" s="36"/>
-      <c r="E278" s="36"/>
-      <c r="F278" s="43"/>
-      <c r="G278" s="36"/>
+      <c r="A278" s="33"/>
+      <c r="B278" s="34"/>
+      <c r="C278" s="33"/>
+      <c r="D278" s="33"/>
+      <c r="E278" s="33"/>
+      <c r="F278" s="40"/>
+      <c r="G278" s="33"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="36"/>
-      <c r="B279" s="37"/>
-      <c r="C279" s="36"/>
-      <c r="D279" s="36"/>
-      <c r="E279" s="36"/>
-      <c r="F279" s="43"/>
-      <c r="G279" s="36"/>
+      <c r="A279" s="33"/>
+      <c r="B279" s="34"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="33"/>
+      <c r="F279" s="40"/>
+      <c r="G279" s="33"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="36"/>
-      <c r="B280" s="37"/>
-      <c r="C280" s="36"/>
-      <c r="D280" s="36"/>
-      <c r="E280" s="36"/>
-      <c r="F280" s="43"/>
-      <c r="G280" s="36"/>
+      <c r="A280" s="33"/>
+      <c r="B280" s="34"/>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="33"/>
+      <c r="F280" s="40"/>
+      <c r="G280" s="33"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" s="36"/>
-      <c r="B281" s="37"/>
-      <c r="C281" s="36"/>
-      <c r="D281" s="36"/>
-      <c r="E281" s="36"/>
-      <c r="F281" s="43"/>
-      <c r="G281" s="36"/>
+      <c r="A281" s="33"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
+      <c r="F281" s="40"/>
+      <c r="G281" s="33"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" s="36"/>
-      <c r="B282" s="37"/>
-      <c r="C282" s="36"/>
-      <c r="D282" s="36"/>
-      <c r="E282" s="36"/>
-      <c r="F282" s="43"/>
-      <c r="G282" s="36"/>
+      <c r="A282" s="33"/>
+      <c r="B282" s="34"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
+      <c r="F282" s="40"/>
+      <c r="G282" s="33"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="36"/>
-      <c r="B283" s="37"/>
-      <c r="C283" s="36"/>
-      <c r="D283" s="36"/>
-      <c r="E283" s="36"/>
-      <c r="F283" s="43"/>
-      <c r="G283" s="36"/>
+      <c r="A283" s="33"/>
+      <c r="B283" s="34"/>
+      <c r="C283" s="33"/>
+      <c r="D283" s="33"/>
+      <c r="E283" s="33"/>
+      <c r="F283" s="40"/>
+      <c r="G283" s="33"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="36"/>
-      <c r="B284" s="37"/>
-      <c r="C284" s="36"/>
-      <c r="D284" s="36"/>
-      <c r="E284" s="36"/>
-      <c r="F284" s="43"/>
-      <c r="G284" s="36"/>
+      <c r="A284" s="33"/>
+      <c r="B284" s="34"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
+      <c r="E284" s="33"/>
+      <c r="F284" s="40"/>
+      <c r="G284" s="33"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="36"/>
-      <c r="B285" s="37"/>
-      <c r="C285" s="36"/>
-      <c r="D285" s="36"/>
-      <c r="E285" s="36"/>
-      <c r="F285" s="43"/>
-      <c r="G285" s="36"/>
+      <c r="A285" s="33"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
+      <c r="E285" s="33"/>
+      <c r="F285" s="40"/>
+      <c r="G285" s="33"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="29"/>
@@ -4902,8 +4902,8 @@
       <c r="C286" s="29"/>
       <c r="D286" s="29"/>
       <c r="E286" s="29"/>
-      <c r="F286" s="43"/>
-      <c r="G286" s="36"/>
+      <c r="F286" s="40"/>
+      <c r="G286" s="33"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="29"/>
@@ -4925,228 +4925,228 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="29"/>
-      <c r="B289" s="45"/>
-      <c r="C289" s="35"/>
-      <c r="D289" s="35"/>
-      <c r="E289" s="35"/>
+      <c r="B289" s="42"/>
+      <c r="C289" s="32"/>
+      <c r="D289" s="32"/>
+      <c r="E289" s="32"/>
       <c r="F289" s="31"/>
       <c r="G289" s="29"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" s="36"/>
-      <c r="B290" s="37"/>
-      <c r="C290" s="36"/>
-      <c r="D290" s="36"/>
-      <c r="E290" s="36"/>
-      <c r="F290" s="46"/>
-      <c r="G290" s="35"/>
+      <c r="A290" s="33"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="33"/>
+      <c r="D290" s="33"/>
+      <c r="E290" s="33"/>
+      <c r="F290" s="43"/>
+      <c r="G290" s="32"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="36"/>
-      <c r="B291" s="37"/>
-      <c r="C291" s="36"/>
-      <c r="D291" s="36"/>
-      <c r="E291" s="36"/>
-      <c r="F291" s="43"/>
-      <c r="G291" s="36"/>
+      <c r="A291" s="33"/>
+      <c r="B291" s="34"/>
+      <c r="C291" s="33"/>
+      <c r="D291" s="33"/>
+      <c r="E291" s="33"/>
+      <c r="F291" s="40"/>
+      <c r="G291" s="33"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" s="36"/>
-      <c r="B292" s="37"/>
-      <c r="C292" s="36"/>
-      <c r="D292" s="36"/>
-      <c r="E292" s="36"/>
-      <c r="F292" s="43"/>
-      <c r="G292" s="36"/>
+      <c r="A292" s="33"/>
+      <c r="B292" s="34"/>
+      <c r="C292" s="33"/>
+      <c r="D292" s="33"/>
+      <c r="E292" s="33"/>
+      <c r="F292" s="40"/>
+      <c r="G292" s="33"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="36"/>
-      <c r="B293" s="37"/>
-      <c r="C293" s="36"/>
-      <c r="D293" s="36"/>
-      <c r="E293" s="36"/>
-      <c r="F293" s="43"/>
-      <c r="G293" s="36"/>
+      <c r="A293" s="33"/>
+      <c r="B293" s="34"/>
+      <c r="C293" s="33"/>
+      <c r="D293" s="33"/>
+      <c r="E293" s="33"/>
+      <c r="F293" s="40"/>
+      <c r="G293" s="33"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" s="36"/>
-      <c r="B294" s="37"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="36"/>
-      <c r="E294" s="36"/>
-      <c r="F294" s="43"/>
-      <c r="G294" s="36"/>
+      <c r="A294" s="33"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="33"/>
+      <c r="D294" s="33"/>
+      <c r="E294" s="33"/>
+      <c r="F294" s="40"/>
+      <c r="G294" s="33"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="36"/>
-      <c r="B295" s="37"/>
-      <c r="C295" s="36"/>
-      <c r="D295" s="36"/>
-      <c r="E295" s="36"/>
-      <c r="F295" s="43"/>
-      <c r="G295" s="36"/>
+      <c r="A295" s="33"/>
+      <c r="B295" s="34"/>
+      <c r="C295" s="33"/>
+      <c r="D295" s="33"/>
+      <c r="E295" s="33"/>
+      <c r="F295" s="40"/>
+      <c r="G295" s="33"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" s="36"/>
-      <c r="B296" s="37"/>
-      <c r="C296" s="36"/>
-      <c r="D296" s="36"/>
-      <c r="E296" s="36"/>
-      <c r="F296" s="43"/>
-      <c r="G296" s="36"/>
+      <c r="A296" s="33"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="33"/>
+      <c r="D296" s="33"/>
+      <c r="E296" s="33"/>
+      <c r="F296" s="40"/>
+      <c r="G296" s="33"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="36"/>
-      <c r="B297" s="37"/>
-      <c r="C297" s="36"/>
-      <c r="D297" s="36"/>
-      <c r="E297" s="36"/>
-      <c r="F297" s="43"/>
-      <c r="G297" s="36"/>
+      <c r="A297" s="33"/>
+      <c r="B297" s="34"/>
+      <c r="C297" s="33"/>
+      <c r="D297" s="33"/>
+      <c r="E297" s="33"/>
+      <c r="F297" s="40"/>
+      <c r="G297" s="33"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" s="36"/>
-      <c r="B298" s="37"/>
-      <c r="C298" s="36"/>
-      <c r="D298" s="36"/>
-      <c r="E298" s="36"/>
-      <c r="F298" s="43"/>
-      <c r="G298" s="36"/>
+      <c r="A298" s="33"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="33"/>
+      <c r="D298" s="33"/>
+      <c r="E298" s="33"/>
+      <c r="F298" s="40"/>
+      <c r="G298" s="33"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="36"/>
-      <c r="B299" s="37"/>
-      <c r="C299" s="36"/>
-      <c r="D299" s="36"/>
-      <c r="E299" s="36"/>
-      <c r="F299" s="43"/>
-      <c r="G299" s="36"/>
+      <c r="A299" s="33"/>
+      <c r="B299" s="34"/>
+      <c r="C299" s="33"/>
+      <c r="D299" s="33"/>
+      <c r="E299" s="33"/>
+      <c r="F299" s="40"/>
+      <c r="G299" s="33"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" s="36"/>
-      <c r="B300" s="37"/>
-      <c r="C300" s="36"/>
-      <c r="D300" s="36"/>
-      <c r="E300" s="36"/>
-      <c r="F300" s="43"/>
-      <c r="G300" s="36"/>
+      <c r="A300" s="33"/>
+      <c r="B300" s="34"/>
+      <c r="C300" s="33"/>
+      <c r="D300" s="33"/>
+      <c r="E300" s="33"/>
+      <c r="F300" s="40"/>
+      <c r="G300" s="33"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" s="36"/>
-      <c r="B301" s="37"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="36"/>
-      <c r="E301" s="36"/>
-      <c r="F301" s="43"/>
-      <c r="G301" s="36"/>
+      <c r="A301" s="33"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="33"/>
+      <c r="D301" s="33"/>
+      <c r="E301" s="33"/>
+      <c r="F301" s="40"/>
+      <c r="G301" s="33"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="36"/>
-      <c r="B302" s="37"/>
-      <c r="C302" s="36"/>
-      <c r="D302" s="36"/>
-      <c r="E302" s="36"/>
-      <c r="F302" s="43"/>
-      <c r="G302" s="36"/>
+      <c r="A302" s="33"/>
+      <c r="B302" s="34"/>
+      <c r="C302" s="33"/>
+      <c r="D302" s="33"/>
+      <c r="E302" s="33"/>
+      <c r="F302" s="40"/>
+      <c r="G302" s="33"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="36"/>
-      <c r="B303" s="37"/>
-      <c r="C303" s="36"/>
-      <c r="D303" s="36"/>
-      <c r="E303" s="36"/>
-      <c r="F303" s="43"/>
-      <c r="G303" s="36"/>
+      <c r="A303" s="33"/>
+      <c r="B303" s="34"/>
+      <c r="C303" s="33"/>
+      <c r="D303" s="33"/>
+      <c r="E303" s="33"/>
+      <c r="F303" s="40"/>
+      <c r="G303" s="33"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="36"/>
-      <c r="B304" s="37"/>
-      <c r="C304" s="36"/>
-      <c r="D304" s="36"/>
-      <c r="E304" s="36"/>
-      <c r="F304" s="43"/>
-      <c r="G304" s="36"/>
+      <c r="A304" s="33"/>
+      <c r="B304" s="34"/>
+      <c r="C304" s="33"/>
+      <c r="D304" s="33"/>
+      <c r="E304" s="33"/>
+      <c r="F304" s="40"/>
+      <c r="G304" s="33"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A305" s="36"/>
-      <c r="B305" s="37"/>
-      <c r="C305" s="36"/>
-      <c r="D305" s="36"/>
-      <c r="E305" s="36"/>
-      <c r="F305" s="43"/>
-      <c r="G305" s="36"/>
+      <c r="A305" s="33"/>
+      <c r="B305" s="34"/>
+      <c r="C305" s="33"/>
+      <c r="D305" s="33"/>
+      <c r="E305" s="33"/>
+      <c r="F305" s="40"/>
+      <c r="G305" s="33"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" s="36"/>
-      <c r="B306" s="37"/>
-      <c r="C306" s="36"/>
-      <c r="D306" s="36"/>
-      <c r="E306" s="36"/>
-      <c r="F306" s="43"/>
-      <c r="G306" s="36"/>
+      <c r="A306" s="33"/>
+      <c r="B306" s="34"/>
+      <c r="C306" s="33"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="33"/>
+      <c r="F306" s="40"/>
+      <c r="G306" s="33"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" s="36"/>
-      <c r="B307" s="37"/>
-      <c r="C307" s="36"/>
-      <c r="D307" s="36"/>
-      <c r="E307" s="36"/>
-      <c r="F307" s="43"/>
-      <c r="G307" s="36"/>
+      <c r="A307" s="33"/>
+      <c r="B307" s="34"/>
+      <c r="C307" s="33"/>
+      <c r="D307" s="33"/>
+      <c r="E307" s="33"/>
+      <c r="F307" s="40"/>
+      <c r="G307" s="33"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" s="36"/>
-      <c r="B308" s="37"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="36"/>
-      <c r="E308" s="36"/>
-      <c r="F308" s="43"/>
-      <c r="G308" s="36"/>
+      <c r="A308" s="33"/>
+      <c r="B308" s="34"/>
+      <c r="C308" s="33"/>
+      <c r="D308" s="33"/>
+      <c r="E308" s="33"/>
+      <c r="F308" s="40"/>
+      <c r="G308" s="33"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="36"/>
-      <c r="B309" s="37"/>
-      <c r="C309" s="36"/>
-      <c r="D309" s="36"/>
-      <c r="E309" s="36"/>
-      <c r="F309" s="43"/>
-      <c r="G309" s="36"/>
+      <c r="A309" s="33"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="33"/>
+      <c r="D309" s="33"/>
+      <c r="E309" s="33"/>
+      <c r="F309" s="40"/>
+      <c r="G309" s="33"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A310" s="36"/>
-      <c r="B310" s="37"/>
-      <c r="C310" s="36"/>
-      <c r="D310" s="36"/>
-      <c r="E310" s="36"/>
-      <c r="F310" s="43"/>
-      <c r="G310" s="36"/>
+      <c r="A310" s="33"/>
+      <c r="B310" s="34"/>
+      <c r="C310" s="33"/>
+      <c r="D310" s="33"/>
+      <c r="E310" s="33"/>
+      <c r="F310" s="40"/>
+      <c r="G310" s="33"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A311" s="36"/>
-      <c r="B311" s="37"/>
-      <c r="C311" s="36"/>
-      <c r="D311" s="36"/>
-      <c r="E311" s="36"/>
-      <c r="F311" s="43"/>
-      <c r="G311" s="36"/>
+      <c r="A311" s="33"/>
+      <c r="B311" s="34"/>
+      <c r="C311" s="33"/>
+      <c r="D311" s="33"/>
+      <c r="E311" s="33"/>
+      <c r="F311" s="40"/>
+      <c r="G311" s="33"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A312" s="36"/>
-      <c r="B312" s="37"/>
-      <c r="C312" s="36"/>
-      <c r="D312" s="36"/>
-      <c r="E312" s="36"/>
-      <c r="F312" s="43"/>
-      <c r="G312" s="36"/>
+      <c r="A312" s="33"/>
+      <c r="B312" s="34"/>
+      <c r="C312" s="33"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="33"/>
+      <c r="F312" s="40"/>
+      <c r="G312" s="33"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A313" s="36"/>
-      <c r="B313" s="37"/>
-      <c r="C313" s="36"/>
-      <c r="D313" s="36"/>
-      <c r="E313" s="36"/>
-      <c r="F313" s="43"/>
-      <c r="G313" s="36"/>
+      <c r="A313" s="33"/>
+      <c r="B313" s="34"/>
+      <c r="C313" s="33"/>
+      <c r="D313" s="33"/>
+      <c r="E313" s="33"/>
+      <c r="F313" s="40"/>
+      <c r="G313" s="33"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="29"/>
@@ -5154,8 +5154,8 @@
       <c r="C314" s="29"/>
       <c r="D314" s="29"/>
       <c r="E314" s="29"/>
-      <c r="F314" s="43"/>
-      <c r="G314" s="36"/>
+      <c r="F314" s="40"/>
+      <c r="G314" s="33"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="29"/>
@@ -5188,8 +5188,8 @@
       <c r="A318" s="29"/>
       <c r="B318" s="30"/>
       <c r="C318" s="29"/>
-      <c r="D318" s="47"/>
-      <c r="E318" s="47"/>
+      <c r="D318" s="44"/>
+      <c r="E318" s="44"/>
       <c r="F318" s="31"/>
       <c r="G318" s="29"/>
     </row>
@@ -5199,8 +5199,8 @@
       <c r="C319" s="29"/>
       <c r="D319" s="29"/>
       <c r="E319" s="29"/>
-      <c r="F319" s="63"/>
-      <c r="G319" s="47"/>
+      <c r="F319" s="59"/>
+      <c r="G319" s="44"/>
     </row>
     <row r="320" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="29"/>
@@ -5228,8 +5228,8 @@
   <mergeCells count="1">
     <mergeCell ref="K10:L10"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="1.0629921259842501" bottom="1.0629921259842501" header="0.78740157480314998" footer="0.78740157480314998"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="3" right="1" top="1" bottom="1" header="0" footer="1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;12&amp;K000000Группа компаний «Шар Құрылыс»&amp;R&amp;K000000Дата и время печати  &amp;D &amp;T</oddFooter>
   </headerFooter>
@@ -6816,73 +6816,73 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67">
+      <c r="C27" s="62"/>
+      <c r="D27" s="63">
         <v>1</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="63">
         <v>2</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="63">
         <v>5</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="63">
         <v>6</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="63">
         <v>7</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="63">
         <v>8</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="63">
         <v>9</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="63">
         <v>10</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="67">
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67">
+      <c r="C28" s="62"/>
+      <c r="D28" s="63">
         <v>1</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="63">
         <v>2</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="63">
         <v>5</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="63">
         <v>6</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="63">
         <v>7</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="63">
         <v>8</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="63">
         <v>9</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="63">
         <v>10</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="67">
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63">
         <v>3</v>
       </c>
     </row>

--- a/v3/template.xlsx
+++ b/v3/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akha/Documents/api_excel/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE04A3-BE87-4449-BEBC-E4F016A28BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004842E-1678-E946-B75D-B782BE69A170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="500" windowWidth="19200" windowHeight="19500" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REESTR" sheetId="1" r:id="rId1"/>
@@ -883,9 +883,6 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -895,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:R322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,8 +1472,8 @@
       <c r="H10" s="67"/>
       <c r="I10" s="66"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1500,16 +1500,16 @@
       <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="80" t="s">
         <v>3</v>
       </c>
       <c r="M13" s="32"/>
@@ -1535,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="39"/>
-      <c r="H15" s="78">
+      <c r="H15" s="77">
         <f>SUM(H17:H122)</f>
         <v>0</v>
       </c>
@@ -5228,8 +5228,8 @@
   <mergeCells count="1">
     <mergeCell ref="K10:L10"/>
   </mergeCells>
-  <pageMargins left="3" right="1" top="1" bottom="1" header="0" footer="1"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="1" right="0.2" top="0.2" bottom="0.2" header="0" footer="0.2"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;12&amp;K000000Группа компаний «Шар Құрылыс»&amp;R&amp;K000000Дата и время печати  &amp;D &amp;T</oddFooter>
   </headerFooter>
@@ -5240,7 +5240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/v3/template.xlsx
+++ b/v3/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akha/Documents/api_excel/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004842E-1678-E946-B75D-B782BE69A170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A528B-34F9-5544-ADC6-15A771FFFE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="19500" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REESTR" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -689,11 +689,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -883,7 +901,6 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,6 +913,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1303,7 +1333,7 @@
   <dimension ref="A1:R322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1419,7 @@
       <c r="L4" s="44"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="44"/>
@@ -1412,10 +1442,10 @@
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="44"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="66"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
@@ -1436,14 +1466,14 @@
       <c r="L7" s="52"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="45"/>
       <c r="C8" s="52"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="66"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
       <c r="M8" s="29"/>
@@ -1472,8 +1502,8 @@
       <c r="H10" s="67"/>
       <c r="I10" s="66"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1500,16 +1530,16 @@
       <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="79" t="s">
         <v>3</v>
       </c>
       <c r="M13" s="32"/>
@@ -1535,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="39"/>
-      <c r="H15" s="77">
+      <c r="H15" s="81">
         <f>SUM(H17:H122)</f>
         <v>0</v>
       </c>

--- a/v3/template.xlsx
+++ b/v3/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akha/Documents/api_excel/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A528B-34F9-5544-ADC6-15A771FFFE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78727B1A-D9C3-FF41-B26A-E7B77FD68119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="19500" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REESTR" sheetId="1" r:id="rId1"/>
@@ -344,9 +344,6 @@
     <t>УТВЕРЖДАЮ</t>
   </si>
   <si>
-    <t>РЕЕСТР ПЛАТЕЖЕЙ №</t>
-  </si>
-  <si>
     <t>ЖК "Grand Victoria 2"</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>Наименование контрагента</t>
+  </si>
+  <si>
+    <t>РЕЕСТР Платежей №</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
       <bottom style="mediumDashed">
         <color auto="1"/>
       </bottom>
@@ -711,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -910,19 +912,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1333,7 +1331,7 @@
   <dimension ref="A1:R322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1417,7 @@
       <c r="L4" s="44"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="44"/>
@@ -1438,42 +1436,38 @@
       <c r="L5" s="44"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="44"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="83"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="45"/>
       <c r="C7" s="52"/>
-      <c r="F7" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="66"/>
+      <c r="F7" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="81"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="45"/>
       <c r="C8" s="52"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="81"/>
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
       <c r="M8" s="29"/>
@@ -1502,8 +1496,8 @@
       <c r="H10" s="67"/>
       <c r="I10" s="66"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1531,10 +1525,10 @@
     </row>
     <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="78" t="s">
         <v>2</v>
@@ -1565,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="39"/>
-      <c r="H15" s="81">
+      <c r="H15" s="80">
         <f>SUM(H17:H122)</f>
         <v>0</v>
       </c>
@@ -6252,7 +6246,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -6285,7 +6279,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6318,7 +6312,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>

--- a/v3/template.xlsx
+++ b/v3/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akha/Documents/api_excel/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78727B1A-D9C3-FF41-B26A-E7B77FD68119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4CEEAE-DB39-7D4C-8D85-D5D06858667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52800" yWindow="500" windowWidth="19200" windowHeight="19500" tabRatio="505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REESTR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
   <si>
     <t>Дата:</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Риск-менеджер</t>
   </si>
   <si>
-    <t>Четтикбаев М.К.</t>
-  </si>
-  <si>
     <t>Директор по строительству</t>
   </si>
   <si>
@@ -360,6 +357,72 @@
   </si>
   <si>
     <t>РЕЕСТР Платежей №</t>
+  </si>
+  <si>
+    <t>Комеков М.К</t>
+  </si>
+  <si>
+    <t>Касымов Э.А.</t>
+  </si>
+  <si>
+    <t>ТОО "ДСК GLB"</t>
+  </si>
+  <si>
+    <t>ТОО «Аллея Тысячелетия»</t>
+  </si>
+  <si>
+    <t>ТОО "Алтын Шар West"</t>
+  </si>
+  <si>
+    <t>ТОО "Grand Victoria City"</t>
+  </si>
+  <si>
+    <t>ТОО "АльфаСтройПроект"</t>
+  </si>
+  <si>
+    <t>ТОО "Астана концепт"</t>
+  </si>
+  <si>
+    <t>ТОО "Дивный град"</t>
+  </si>
+  <si>
+    <t>ТОО "Строительное развитие Астана"</t>
+  </si>
+  <si>
+    <t>Жаукенов М.К.</t>
+  </si>
+  <si>
+    <t>Кусаинов Д.К.</t>
+  </si>
+  <si>
+    <t>ТОО "Проект Авангард"</t>
+  </si>
+  <si>
+    <t>ТОО "Интеграл Проект"</t>
+  </si>
+  <si>
+    <t>ТОО "ForwardProjekt"</t>
+  </si>
+  <si>
+    <t>ТОО "Проект Максимум"</t>
+  </si>
+  <si>
+    <t>ТОО "GrandNurProject"</t>
+  </si>
+  <si>
+    <t>ТОО "АстанаГрандПроект"</t>
+  </si>
+  <si>
+    <t>ТОО "Арнау Проект"</t>
+  </si>
+  <si>
+    <t>ТОО "NurAtakentStroy"</t>
+  </si>
+  <si>
+    <t>ТОО "НурКомИнжиниринг"</t>
+  </si>
+  <si>
+    <t>ТОО "Limon Project"</t>
   </si>
 </sst>
 </file>
@@ -511,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -709,11 +772,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -916,14 +999,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1330,8 +1433,8 @@
   </sheetPr>
   <dimension ref="A1:R322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1363,19 +1466,19 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
-      <c r="B2" s="50" t="e">
+      <c r="B2" s="50">
         <f>INDEX(СПР_ОБЪЕКТОВ!$B$7:$K$80, MATCH($G11, СПР_ОБЪЕКТОВ!$B$7:$B$80, 0), 2)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="C2" s="44"/>
-      <c r="F2" s="65" t="e">
+      <c r="F2" s="65" t="str">
         <f>IF(N($B2)=0,"","СОГЛАСОВАНО:")</f>
-        <v>#N/A</v>
+        <v>СОГЛАСОВАНО:</v>
       </c>
       <c r="G2" s="66"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
@@ -1386,15 +1489,15 @@
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
       <c r="C3" s="44"/>
-      <c r="F3" s="69" t="e">
-        <f>IF(N($B2)=0,"",VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$8:$K$100,9,0)&amp;" "&amp;VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$8:$K$100,7,0))</f>
-        <v>#N/A</v>
+      <c r="F3" s="69" t="str">
+        <f>IF(N($B2)=0,"",VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$8:$K$92,9,0)&amp;" "&amp;VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$8:$K$92,7,0))</f>
+        <v>Генеральный директор ТОО "Шар Құрылыс"</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="67"/>
-      <c r="I3" s="70" t="e">
-        <f>IF(N($B4)=0,"",VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$100,9,0)&amp;" "&amp;VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$100,7,0))</f>
-        <v>#N/A</v>
+      <c r="I3" s="70" t="str">
+        <f>IF(N($B4)=0,"",VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$92,9,0)&amp;" "&amp;VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$92,7,0))</f>
+        <v>Генеральный директор ТОО "Аргон Строй"</v>
       </c>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
@@ -1403,9 +1506,9 @@
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
-      <c r="B4" s="50" t="e">
+      <c r="B4" s="50">
         <f>INDEX(СПР_ОБЪЕКТОВ!$B$7:$K$80, MATCH($G11, СПР_ОБЪЕКТОВ!$B$7:$B$80, 0), 3)</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="C4" s="44"/>
       <c r="F4" s="69"/>
@@ -1421,15 +1524,15 @@
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="44"/>
-      <c r="F5" s="69" t="e">
-        <f>IF(N($B2)=0,"","____________________________ "&amp;VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$7:$K$100,5,0))</f>
-        <v>#N/A</v>
+      <c r="F5" s="69" t="str">
+        <f>IF(N($B2)=0,"","____________________________ "&amp;VLOOKUP(N($B2),СПР_ПОДПИСАНТОВ!$B$7:$K$92,5,0))</f>
+        <v>____________________________ Аманов Б.Ш.</v>
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="67"/>
-      <c r="I5" s="70" t="e">
-        <f>IF(N($B4)=0,"","____________________________ "&amp;VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$100,5,0))</f>
-        <v>#N/A</v>
+      <c r="I5" s="70" t="str">
+        <f>IF(N($B4)=0,"","____________________________ "&amp;VLOOKUP(N($B4),СПР_ПОДПИСАНТОВ!$B$8:$K$92,5,0))</f>
+        <v>____________________________ Билисбеков Н.Д.</v>
       </c>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
@@ -1449,11 +1552,11 @@
       <c r="A7" s="52"/>
       <c r="B7" s="45"/>
       <c r="C7" s="52"/>
-      <c r="F7" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="F7" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="81"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
@@ -1496,8 +1599,8 @@
       <c r="H10" s="67"/>
       <c r="I10" s="66"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1612,9 @@
       <c r="F11" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="74"/>
+      <c r="G11" s="74" t="s">
+        <v>103</v>
+      </c>
       <c r="H11" s="74"/>
       <c r="I11" s="75"/>
     </row>
@@ -1525,10 +1630,10 @@
     </row>
     <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="78" t="s">
         <v>2</v>
@@ -5262,10 +5367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:K59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5483,7 +5588,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>16</v>
@@ -5541,13 +5646,13 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="18"/>
     </row>
@@ -5566,7 +5671,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K19" s="18"/>
     </row>
@@ -5579,13 +5684,13 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" s="18"/>
     </row>
@@ -5598,13 +5703,13 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="18"/>
     </row>
@@ -5617,13 +5722,13 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22" s="18"/>
     </row>
@@ -5635,14 +5740,14 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="19" t="s">
-        <v>31</v>
+      <c r="F23" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23" s="18"/>
     </row>
@@ -5654,14 +5759,18 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="19" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K24" s="18"/>
     </row>
@@ -5674,13 +5783,13 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="20" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G25" s="18">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="19" t="s">
@@ -5696,14 +5805,14 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="20" t="s">
-        <v>37</v>
+      <c r="F26" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="G26" s="18">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="19" t="s">
@@ -5719,14 +5828,14 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="20" t="s">
-        <v>39</v>
+      <c r="F27" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="G27" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="19" t="s">
@@ -5742,14 +5851,14 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="20" t="s">
-        <v>41</v>
+      <c r="F28" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="18">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="19" t="s">
@@ -5766,10 +5875,10 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="18">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>43</v>
@@ -5788,14 +5897,14 @@
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="19" t="s">
-        <v>35</v>
+      <c r="F30" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="G30" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="19" t="s">
@@ -5811,14 +5920,14 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="19" t="s">
-        <v>35</v>
+      <c r="F31" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="G31" s="18">
+        <v>9</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="19" t="s">
@@ -5835,13 +5944,13 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="19" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="G32" s="18">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="19" t="s">
@@ -5858,13 +5967,13 @@
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="18">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="19" t="s">
@@ -5881,13 +5990,13 @@
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="18">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="19" t="s">
@@ -5904,13 +6013,13 @@
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="18">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="19" t="s">
@@ -5927,13 +6036,13 @@
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G36" s="18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="19" t="s">
@@ -5950,13 +6059,13 @@
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="19" t="s">
@@ -5973,13 +6082,13 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="19" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="G38" s="18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="19" t="s">
@@ -5995,14 +6104,14 @@
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="20" t="s">
-        <v>54</v>
+      <c r="F39" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="G39" s="18">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="19" t="s">
@@ -6018,11 +6127,15 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
+      <c r="F40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="18">
+        <v>18</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="I40" s="18"/>
       <c r="J40" s="19" t="s">
         <v>17</v>
@@ -6031,123 +6144,432 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="17">
+        <v>27</v>
+      </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="18">
+        <v>19</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="I41" s="18"/>
-      <c r="J41" s="19"/>
+      <c r="J41" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="17"/>
+      <c r="B42" s="17">
+        <v>28</v>
+      </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="18">
+        <v>20</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
+      <c r="J42" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="17"/>
+      <c r="B43" s="17">
+        <v>29</v>
+      </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="18">
+        <v>21</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="I43" s="18"/>
-      <c r="J43" s="19"/>
+      <c r="J43" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="17"/>
+      <c r="B44" s="17">
+        <v>30</v>
+      </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
+      <c r="F44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="18">
+        <v>22</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="I44" s="18"/>
-      <c r="J44" s="19"/>
+      <c r="J44" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="17"/>
+      <c r="B45" s="17">
+        <v>31</v>
+      </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
+      <c r="F45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="18">
+        <v>23</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="I45" s="18"/>
-      <c r="J45" s="19"/>
+      <c r="J45" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="17"/>
+      <c r="B46" s="17">
+        <v>32</v>
+      </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
+      <c r="F46" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="18">
+        <v>24</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="I46" s="18"/>
-      <c r="J46" s="19"/>
+      <c r="J46" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="17"/>
+      <c r="B47" s="17">
+        <v>33</v>
+      </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
+      <c r="F47" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="18">
+        <v>25</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="J47" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="17"/>
+      <c r="B48" s="17">
+        <v>34</v>
+      </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
+      <c r="F48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="18">
+        <v>26</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="I48" s="18"/>
-      <c r="J48" s="19"/>
+      <c r="J48" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="B49" s="85">
+        <v>35</v>
+      </c>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="86">
+        <v>27</v>
+      </c>
+      <c r="H49" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="86"/>
+      <c r="J49" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="86"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="92">
+        <v>36</v>
+      </c>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="90">
+        <v>28</v>
+      </c>
+      <c r="H50" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="88"/>
+      <c r="J50" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="89"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="90">
+        <v>37</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="90">
+        <v>29</v>
+      </c>
+      <c r="H51" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="90"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="17">
+        <v>38</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="18">
+        <v>30</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="17">
+        <v>39</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="18">
+        <v>31</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="17">
+        <v>40</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="18">
+        <v>32</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="17">
+        <v>41</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="18">
+        <v>33</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="17">
+        <v>42</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="18">
+        <v>34</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="17">
+        <v>43</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="18">
+        <v>35</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="17">
+        <v>44</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="18">
+        <v>36</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="17">
+        <v>45</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="18">
+        <v>37</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uMsdPwTQeexHyohCDNuIfC+a/3/HO7llseO6psVrMLjqrOO1Zdl8f7ibFlr3WgnIMSCH0ms/TyKj4VlrpTFQIw==" saltValue="rYzlr/gIVgA/p7ukV/FVYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
@@ -6161,8 +6583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6174,61 +6596,61 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="C6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="K6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="N6" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -6246,7 +6668,10 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -6279,7 +6704,10 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6312,13 +6740,13 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -6342,7 +6770,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -6375,7 +6806,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -6408,7 +6842,10 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -6441,7 +6878,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -6474,7 +6914,10 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -6507,7 +6950,10 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6540,7 +6986,10 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -6573,7 +7022,10 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -6606,7 +7058,10 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -6639,7 +7094,10 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -6672,7 +7130,10 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -6705,7 +7166,10 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -6738,7 +7202,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="1">
         <v>3</v>
@@ -6747,7 +7211,10 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -6777,7 +7244,10 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -6807,7 +7277,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -6843,9 +7313,11 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="62"/>
+        <v>86</v>
+      </c>
+      <c r="C27" s="62">
+        <v>0</v>
+      </c>
       <c r="D27" s="63">
         <v>1</v>
       </c>
@@ -6879,9 +7351,11 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="62"/>
+        <v>87</v>
+      </c>
+      <c r="C28" s="62">
+        <v>0</v>
+      </c>
       <c r="D28" s="63">
         <v>1</v>
       </c>
@@ -6915,7 +7389,10 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -6951,7 +7428,7 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N31" s="1">
         <v>3</v>
@@ -6960,7 +7437,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N32" s="1">
         <v>3</v>
@@ -6969,7 +7446,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N33" s="1">
         <v>3</v>
@@ -6978,7 +7455,7 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N34" s="1">
         <v>3</v>
@@ -6987,7 +7464,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N35" s="1">
         <v>3</v>
@@ -6996,7 +7473,7 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N36" s="1">
         <v>3</v>
@@ -7005,7 +7482,7 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N37" s="1">
         <v>3</v>
@@ -7014,7 +7491,7 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N38" s="1">
         <v>3</v>
@@ -7023,7 +7500,7 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N39" s="1">
         <v>3</v>
@@ -7032,7 +7509,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N40" s="1">
         <v>3</v>
